--- a/plantillaHPV/encuestaSatisfaccion.xlsx
+++ b/plantillaHPV/encuestaSatisfaccion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27540" windowHeight="7965" tabRatio="661" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27540" windowHeight="7965" tabRatio="661"/>
   </bookViews>
   <sheets>
     <sheet name="detalle" sheetId="1" r:id="rId1"/>
@@ -168,11 +168,11 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -194,20 +194,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>523388</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>99131</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -226,8 +226,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2228850" y="85725"/>
-          <a:ext cx="7571888" cy="823031"/>
+          <a:off x="962025" y="0"/>
+          <a:ext cx="10058400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -611,7 +611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -731,22 +731,22 @@
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C10" s="4"/>
@@ -885,22 +885,22 @@
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C10" s="4"/>
@@ -919,17 +919,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" style="7" customWidth="1"/>
+    <col min="1" max="1" width="4" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
@@ -937,7 +937,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -945,7 +945,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -953,7 +953,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
@@ -961,7 +961,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
@@ -969,7 +969,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
@@ -977,7 +977,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
@@ -985,7 +985,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
@@ -993,7 +993,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
@@ -1001,7 +1001,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
@@ -1009,7 +1009,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
@@ -1017,7 +1017,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B12" t="s">

--- a/plantillaHPV/encuestaSatisfaccion.xlsx
+++ b/plantillaHPV/encuestaSatisfaccion.xlsx
@@ -195,19 +195,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -226,7 +226,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="962025" y="0"/>
+          <a:off x="933450" y="0"/>
           <a:ext cx="10058400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
